--- a/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2E703-978A-43A1-A69D-E1792F3169CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A5D34-F7D6-4444-B34E-BED0B011C218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="2280" windowWidth="17210" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="2190" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -477,16 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日時型</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -542,6 +532,9 @@
   <si>
     <t>monthly_end_date</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時型</t>
   </si>
 </sst>
 </file>
@@ -920,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -928,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -960,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44332</v>
+        <v>44333</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -1339,7 +1332,7 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1">
@@ -1389,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1488,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1536,10 +1529,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>45</v>
@@ -1634,10 +1627,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -1683,10 +1676,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>20</v>
@@ -1985,7 +1978,7 @@
   <autoFilter ref="A1:I20" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D10:D20" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A5D34-F7D6-4444-B34E-BED0B011C218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE0408-B513-46AA-B077-3E02BACA8F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="2190" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="850" yWindow="6010" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030060_株価月足.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE0408-B513-46AA-B077-3E02BACA8F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7ED7B7-9BEF-4106-A3A5-058284EC2B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="6010" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19230" yWindow="4940" windowWidth="14680" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル情報" sheetId="2" r:id="rId2"/>
     <sheet name="型" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$I$20</definedName>
     <definedName name="論理型">型!$B$2:$B$9</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -535,6 +538,57 @@
   </si>
   <si>
     <t>日時型</t>
+  </si>
+  <si>
+    <t>ＭＣＡＤライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadl</t>
+  </si>
+  <si>
+    <t>ＭＣＡＤシグナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcads</t>
+  </si>
+  <si>
+    <t>ＭＣＡＤヒストグラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadh</t>
+  </si>
+  <si>
+    <t>勢力指数</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>勢力指数２ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi2ema</t>
+  </si>
+  <si>
+    <t>勢力指数１３ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pi13ema</t>
   </si>
 </sst>
 </file>
@@ -633,6 +687,134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="基本情報"/>
+      <sheetName val="テーブル情報"/>
+      <sheetName val="型"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>論理型</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>物理型</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>桁指定</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>4バイト整数</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>INT</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>8バイト整数</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>BIGINT</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>日付型</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>DATE</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>日時型</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>TIMESTAMP WITH TIME ZONE</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>文字列型</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>VARCHAR</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>有</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>自動4バイト</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>SMALLSERIAL</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>自動8バイト</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>SERIAL</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>4バイト実数</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>REAL</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>8バイト実数</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>DOUBLE PRECISION</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>無</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -976,15 +1158,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1070,7 +1256,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A20" si="2">ROW()-1</f>
+        <f t="shared" ref="A3:A26" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1115,7 +1301,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P21" si="3">IF(I3="○"," IDENTITY","")</f>
+        <f t="shared" ref="P3:P27" si="3">IF(I3="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
@@ -1597,7 +1783,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J20" si="6">",   "&amp;C13</f>
+        <f t="shared" ref="J13:J26" si="6">",   "&amp;C13</f>
         <v>,   no</v>
       </c>
       <c r="K13" t="str">
@@ -1613,7 +1799,7 @@
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N20" si="7">IF(H13=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N13:N26" si="7">IF(H13=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P13" t="str">
@@ -1658,7 +1844,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M20" si="9">IF(G14="無"," NOT NULL","")</f>
+        <f t="shared" ref="M14:M26" si="9">IF(G14="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N14" t="str">
@@ -1965,11 +2151,305 @@
       </c>
     </row>
     <row r="21" spans="1:16">
+      <c r="A21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="J21" t="str">
+        <f t="shared" si="6"/>
+        <v>,   mcadl</v>
+      </c>
+      <c r="K21" t="str">
+        <f>" "&amp;VLOOKUP(D21,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(VLOOKUP(D21,[1]型!B:D,3,FALSE)="有","("&amp;E21&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" t="str">
+        <f t="shared" si="6"/>
+        <v>,   mcads</v>
+      </c>
+      <c r="K22" t="str">
+        <f>" "&amp;VLOOKUP(D22,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(VLOOKUP(D22,[1]型!B:D,3,FALSE)="有","("&amp;E22&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="J23" t="str">
+        <f t="shared" si="6"/>
+        <v>,   mcadh</v>
+      </c>
+      <c r="K23" t="str">
+        <f>" "&amp;VLOOKUP(D23,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(VLOOKUP(D23,[1]型!B:D,3,FALSE)="有","("&amp;E23&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>,   pi</v>
+      </c>
+      <c r="K24" t="str">
+        <f>" "&amp;VLOOKUP(D24,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(VLOOKUP(D24,[1]型!B:D,3,FALSE)="有","("&amp;E24&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="J25" t="str">
+        <f t="shared" si="6"/>
+        <v>,   pi2ema</v>
+      </c>
+      <c r="K25" t="str">
+        <f>" "&amp;VLOOKUP(D25,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(VLOOKUP(D25,[1]型!B:D,3,FALSE)="有","("&amp;E25&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="J26" t="str">
+        <f t="shared" si="6"/>
+        <v>,   pi13ema</v>
+      </c>
+      <c r="K26" t="str">
+        <f>" "&amp;VLOOKUP(D26,[1]型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L26" t="str">
+        <f>IF(VLOOKUP(D26,[1]型!B:D,3,FALSE)="有","("&amp;E26&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="J27" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1978,7 +2458,7 @@
   <autoFilter ref="A1:I20" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D26" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>
